--- a/dados/tudo.som.xlsx
+++ b/dados/tudo.som.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,13 +476,13 @@
           <t>Fonte E Carregador Bateria Bivolt Jfa Storm 150a Digital Cca</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>7899</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-e-carregador-bateria-bivolt-jfa-storm-150a-digital-cca/p/MLB21562754?pdp_filters=seller_id:285578943#searchVariation=MLB21562754&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=882aa5dd-1257-41a0-8117-36d2866b5f9d</t>
+          <t>https://www.mercadolivre.com.br/fonte-e-carregador-bateria-bivolt-jfa-storm-150a-digital-cca/p/MLB21562754?pdp_filters=seller_id:285578943#searchVariation=MLB21562754&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc06e3e9-82dc-4844-a08b-92269bdd00d0</t>
         </is>
       </c>
     </row>
@@ -507,13 +507,13 @@
           <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>84.53</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:285578943#searchVariation=MLB33922926&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=882aa5dd-1257-41a0-8117-36d2866b5f9d</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:285578943#searchVariation=MLB33922926&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc06e3e9-82dc-4844-a08b-92269bdd00d0</t>
         </is>
       </c>
     </row>
@@ -538,15 +538,19 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>683.99</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -559,7 +563,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:285578943#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=882aa5dd-1257-41a0-8117-36d2866b5f9d</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:285578943#searchVariation=MLB24834408&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc06e3e9-82dc-4844-a08b-92269bdd00d0</t>
         </is>
       </c>
     </row>
@@ -569,13 +573,13 @@
           <t xml:space="preserve">Controle De Longa Distânc Jfa K 1200 K600 Resistente Preto </t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>95.23</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
@@ -590,7 +594,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240676195-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D882aa5dd-1257-41a0-8117-36d2866b5f9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3240676195-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc06e3e9-82dc-4844-a08b-92269bdd00d0</t>
         </is>
       </c>
     </row>
@@ -600,13 +604,13 @@
           <t>Controle De Longa Distânc Jfa K1200 Resistente Preto Branco</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>84.53</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -621,7 +625,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240688530-controle-de-longa-distnc-jfa-k1200-resistente-preto-branco-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D882aa5dd-1257-41a0-8117-36d2866b5f9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3240688530-controle-de-longa-distnc-jfa-k1200-resistente-preto-branco-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc06e3e9-82dc-4844-a08b-92269bdd00d0</t>
         </is>
       </c>
     </row>
@@ -631,13 +635,13 @@
           <t>Controle De Longa Distânc Jfa K 1200 K600 Resistente Branco</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>95.23</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -652,7 +656,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240683080-controle-de-longa-distnc-jfa-k-1200-k600-resistente-branco-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D882aa5dd-1257-41a0-8117-36d2866b5f9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3240683080-controle-de-longa-distnc-jfa-k-1200-k600-resistente-branco-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc06e3e9-82dc-4844-a08b-92269bdd00d0</t>
         </is>
       </c>
     </row>
@@ -662,13 +666,13 @@
           <t xml:space="preserve">Controle De Longa Distânc Jfa K 1200 K600 Resistente Preto </t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>84.53</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -683,7 +687,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240695139-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D882aa5dd-1257-41a0-8117-36d2866b5f9d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3240695139-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc06e3e9-82dc-4844-a08b-92269bdd00d0</t>
         </is>
       </c>
     </row>

--- a/dados/tudo.som.xlsx
+++ b/dados/tudo.som.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,18 +473,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 150a Digital Cca</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7899</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>694.8200000000001</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>NA</t>
@@ -492,12 +496,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-e-carregador-bateria-bivolt-jfa-storm-150a-digital-cca/p/MLB21562754?pdp_filters=seller_id:285578943#searchVariation=MLB21562754&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc06e3e9-82dc-4844-a08b-92269bdd00d0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:285578943#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
         </is>
       </c>
     </row>
@@ -509,13 +513,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>84.53</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -528,29 +536,25 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:285578943#searchVariation=MLB33922926&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc06e3e9-82dc-4844-a08b-92269bdd00d0</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:285578943#searchVariation=MLB33922926&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 150a Digital Cca</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>683.99</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>7899</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -563,25 +567,29 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:285578943#searchVariation=MLB24834408&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc06e3e9-82dc-4844-a08b-92269bdd00d0</t>
+          <t>https://www.mercadolivre.com.br/fonte-e-carregador-bateria-bivolt-jfa-storm-150a-digital-cca/p/MLB21562754?pdp_filters=seller_id:285578943#searchVariation=MLB21562754&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle De Longa Distânc Jfa K 1200 K600 Resistente Preto </t>
+          <t>Fonte Caixa Bob Jfa Storm 200 A Bivolt 3800w Lançamento 200a</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>95.23</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>683.99</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -589,30 +597,34 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240676195-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc06e3e9-82dc-4844-a08b-92269bdd00d0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2702932417-fonte-caixa-bob-jfa-storm-200-a-bivolt-3800w-lancamento-200a-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Controle De Longa Distânc Jfa K1200 Resistente Preto Branco</t>
+          <t xml:space="preserve">Controle De Longa Distânc Jfa K 1200 K600 Resistente Preto </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>84.53</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>95.23</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -620,30 +632,34 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240688530-controle-de-longa-distnc-jfa-k1200-resistente-preto-branco-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc06e3e9-82dc-4844-a08b-92269bdd00d0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3240676195-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle De Longa Distânc Jfa K 1200 K600 Resistente Branco</t>
+          <t>Controle De Longa Distânc Jfa K1200 Resistente Preto Branco</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>95.23</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>84.53</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -651,43 +667,82 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240683080-controle-de-longa-distnc-jfa-k-1200-k600-resistente-branco-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc06e3e9-82dc-4844-a08b-92269bdd00d0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3240688530-controle-de-longa-distnc-jfa-k1200-resistente-preto-branco-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Controle De Longa Distânc Jfa K 1200 K600 Resistente Branco</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>95.23</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3240683080-controle-de-longa-distnc-jfa-k-1200-k600-resistente-branco-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t xml:space="preserve">Controle De Longa Distânc Jfa K 1200 K600 Resistente Preto </t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>84.53</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240695139-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc06e3e9-82dc-4844-a08b-92269bdd00d0</t>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3240695139-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
         </is>
       </c>
     </row>

--- a/dados/tudo.som.xlsx
+++ b/dados/tudo.som.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,276 +483,356 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>tudo.som</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:285578943#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:285578943#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=aa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>tudo.som</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>84.53</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:285578943#searchVariation=MLB33922926&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:285578943#searchVariation=MLB33922926&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=aa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tudo.som</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Fonte E Carregador Bateria Bivolt Jfa Storm 150a Digital Cca</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>7899</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-e-carregador-bateria-bivolt-jfa-storm-150a-digital-cca/p/MLB21562754?pdp_filters=seller_id:285578943#searchVariation=MLB21562754&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-e-carregador-bateria-bivolt-jfa-storm-150a-digital-cca/p/MLB21562754?pdp_filters=seller_id:285578943#searchVariation=MLB21562754&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=aa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>tudo.som</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Fonte Caixa Bob Jfa Storm 200 A Bivolt 3800w Lançamento 200a</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>683.99</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2702932417-fonte-caixa-bob-jfa-storm-200-a-bivolt-3800w-lancamento-200a-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2702932417-fonte-caixa-bob-jfa-storm-200-a-bivolt-3800w-lancamento-200a-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Daa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>tudo.som</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t xml:space="preserve">Controle De Longa Distânc Jfa K 1200 K600 Resistente Preto </t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>95.23</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240676195-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3240676195-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Daa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tudo.som</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Controle De Longa Distânc Jfa K1200 Resistente Preto Branco</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>84.53</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240688530-controle-de-longa-distnc-jfa-k1200-resistente-preto-branco-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3240688530-controle-de-longa-distnc-jfa-k1200-resistente-preto-branco-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Daa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>tudo.som</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Controle De Longa Distânc Jfa K 1200 K600 Resistente Branco</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>95.23</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240683080-controle-de-longa-distnc-jfa-k-1200-k600-resistente-branco-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3240683080-controle-de-longa-distnc-jfa-k-1200-k600-resistente-branco-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Daa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>tudo.som</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t xml:space="preserve">Controle De Longa Distânc Jfa K 1200 K600 Resistente Preto </t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>84.53</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240695139-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D61aad6a6-bae6-4208-9ec0-1a7abf86053b</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3240695139-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Daa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
         </is>
       </c>
     </row>

--- a/dados/tudo.som.xlsx
+++ b/dados/tudo.som.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:285578943#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=aa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:285578943#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=db13b22e-02e0-4536-8a5c-19a3087a4782</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,16 +538,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
+          <t>Controle De Longa Distânc Jfa K 1200 K600 Resistente Branco</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>84.53</v>
+        <v>95.23</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:285578943#searchVariation=MLB33922926&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=aa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3240683080-controle-de-longa-distnc-jfa-k-1200-k600-resistente-branco-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Ddb13b22e-02e0-4536-8a5c-19a3087a4782</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,18 +583,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 150a Digital Cca</t>
+          <t>Controle De Longa Distânc Jfa K1200 Resistente Preto Branco</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7899</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>84.53</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -607,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-e-carregador-bateria-bivolt-jfa-storm-150a-digital-cca/p/MLB21562754?pdp_filters=seller_id:285578943#searchVariation=MLB21562754&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=aa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3240688530-controle-de-longa-distnc-jfa-k1200-resistente-preto-branco-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Ddb13b22e-02e0-4536-8a5c-19a3087a4782</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,22 +628,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Caixa Bob Jfa Storm 200 A Bivolt 3800w Lançamento 200a</t>
+          <t>Fonte E Carregador Bateria Bivolt Jfa Storm 150a Digital Cca</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>683.99</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>7899</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -652,14 +652,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2702932417-fonte-caixa-bob-jfa-storm-200-a-bivolt-3800w-lancamento-200a-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Daa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
+          <t>https://www.mercadolivre.com.br/fonte-e-carregador-bateria-bivolt-jfa-storm-150a-digital-cca/p/MLB21562754?pdp_filters=seller_id:285578943#searchVariation=MLB21562754&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=db13b22e-02e0-4536-8a5c-19a3087a4782</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,16 +669,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle De Longa Distânc Jfa K 1200 K600 Resistente Preto </t>
+          <t>Controle Longa Distancia Jfa K1200 Alcance De 1200 Metros</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>95.23</v>
+        <v>84.53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -692,19 +692,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240676195-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Daa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-alcance-de-1200-metros/p/MLB33922926?pdp_filters=seller_id:285578943#searchVariation=MLB33922926&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=db13b22e-02e0-4536-8a5c-19a3087a4782</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,16 +714,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Controle De Longa Distânc Jfa K1200 Resistente Preto Branco</t>
+          <t xml:space="preserve">Controle De Longa Distânc Jfa K 1200 K600 Resistente Preto </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>84.53</v>
+        <v>95.23</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -737,19 +737,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240688530-controle-de-longa-distnc-jfa-k1200-resistente-preto-branco-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Daa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3240676195-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Ddb13b22e-02e0-4536-8a5c-19a3087a4782</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,16 +759,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Controle De Longa Distânc Jfa K 1200 K600 Resistente Branco</t>
+          <t>Fonte Caixa Bob Jfa Storm 200 A Bivolt 3800w Lançamento 200a</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>95.23</v>
+        <v>683.99</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -782,19 +782,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240683080-controle-de-longa-distnc-jfa-k-1200-k600-resistente-branco-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Daa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2702932417-fonte-caixa-bob-jfa-storm-200-a-bivolt-3800w-lancamento-200a-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Ddb13b22e-02e0-4536-8a5c-19a3087a4782</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3240695139-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Daa68dec7-8970-4a14-b0a1-3f9cb98e5acd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3240695139-controle-de-longa-distnc-jfa-k-1200-k600-resistente-preto-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Ddb13b22e-02e0-4536-8a5c-19a3087a4782</t>
         </is>
       </c>
     </row>
